--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Cthrc1</t>
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H2">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I2">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J2">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.02092</v>
+        <v>5.616015666666666</v>
       </c>
       <c r="N2">
-        <v>12.06276</v>
+        <v>16.848047</v>
       </c>
       <c r="O2">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="P2">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
       <c r="Q2">
-        <v>2.101579408426667</v>
+        <v>4.839992749841445</v>
       </c>
       <c r="R2">
-        <v>18.91421467584</v>
+        <v>43.559934748573</v>
       </c>
       <c r="S2">
-        <v>0.0009512886638648498</v>
+        <v>0.00193781314977661</v>
       </c>
       <c r="T2">
-        <v>0.0009512886638648498</v>
+        <v>0.00193781314977661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H3">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I3">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J3">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.435526000000001</v>
+        <v>8.435525999999999</v>
       </c>
       <c r="N3">
         <v>25.306578</v>
       </c>
       <c r="O3">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="P3">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
       <c r="Q3">
-        <v>4.408923266528</v>
+        <v>7.269902205478</v>
       </c>
       <c r="R3">
-        <v>39.680309398752</v>
+        <v>65.429119849302</v>
       </c>
       <c r="S3">
-        <v>0.001995717462057738</v>
+        <v>0.002910688676512326</v>
       </c>
       <c r="T3">
-        <v>0.001995717462057738</v>
+        <v>0.002910688676512326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H4">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I4">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J4">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.491604333333333</v>
+        <v>2.036951</v>
       </c>
       <c r="N4">
-        <v>4.474813</v>
+        <v>6.110853000000001</v>
       </c>
       <c r="O4">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="P4">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="Q4">
-        <v>0.7796039096657778</v>
+        <v>1.755484431836334</v>
       </c>
       <c r="R4">
-        <v>7.016435186992</v>
+        <v>15.799359886527</v>
       </c>
       <c r="S4">
-        <v>0.0003528909536304344</v>
+        <v>0.0007028524611637093</v>
       </c>
       <c r="T4">
-        <v>0.0003528909536304345</v>
+        <v>0.0007028524611637092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H5">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I5">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J5">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.461233333333334</v>
+        <v>3.542379</v>
       </c>
       <c r="N5">
-        <v>10.3837</v>
+        <v>10.627137</v>
       </c>
       <c r="O5">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007442</v>
       </c>
       <c r="P5">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007443</v>
       </c>
       <c r="Q5">
-        <v>1.809052828977778</v>
+        <v>3.052891888987001</v>
       </c>
       <c r="R5">
-        <v>16.2814754608</v>
+        <v>27.476027000883</v>
       </c>
       <c r="S5">
-        <v>0.0008188752904785838</v>
+        <v>0.001222302253969113</v>
       </c>
       <c r="T5">
-        <v>0.0008188752904785836</v>
+        <v>0.001222302253969113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>377.66182</v>
       </c>
       <c r="I6">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J6">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.02092</v>
+        <v>5.616015666666666</v>
       </c>
       <c r="N6">
-        <v>12.06276</v>
+        <v>16.848047</v>
       </c>
       <c r="O6">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="P6">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
       <c r="Q6">
-        <v>506.1826550914667</v>
+        <v>706.9848992739488</v>
       </c>
       <c r="R6">
-        <v>4555.643895823201</v>
+        <v>6362.86409346554</v>
       </c>
       <c r="S6">
-        <v>0.2291256850456174</v>
+        <v>0.283059232795634</v>
       </c>
       <c r="T6">
-        <v>0.2291256850456174</v>
+        <v>0.2830592327956341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>377.66182</v>
       </c>
       <c r="I7">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J7">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.435526000000001</v>
+        <v>8.435525999999999</v>
       </c>
       <c r="N7">
         <v>25.306578</v>
       </c>
       <c r="O7">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="P7">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
       <c r="Q7">
         <v>1061.92536727244</v>
       </c>
       <c r="R7">
-        <v>9557.328305451962</v>
+        <v>9557.32830545196</v>
       </c>
       <c r="S7">
-        <v>0.4806849361514572</v>
+        <v>0.4251685998598455</v>
       </c>
       <c r="T7">
-        <v>0.4806849361514571</v>
+        <v>0.4251685998598455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>377.66182</v>
       </c>
       <c r="I8">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J8">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.491604333333333</v>
+        <v>2.036951</v>
       </c>
       <c r="N8">
-        <v>4.474813</v>
+        <v>6.110853000000001</v>
       </c>
       <c r="O8">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="P8">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="Q8">
-        <v>187.7740024155178</v>
+        <v>256.4262073036067</v>
       </c>
       <c r="R8">
-        <v>1689.96602173966</v>
+        <v>2307.83586573246</v>
       </c>
       <c r="S8">
-        <v>0.08499668351820266</v>
+        <v>0.1026666985144865</v>
       </c>
       <c r="T8">
-        <v>0.08499668351820268</v>
+        <v>0.1026666985144865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>377.66182</v>
       </c>
       <c r="I9">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J9">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.461233333333334</v>
+        <v>3.542379</v>
       </c>
       <c r="N9">
-        <v>10.3837</v>
+        <v>10.627137</v>
       </c>
       <c r="O9">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007442</v>
       </c>
       <c r="P9">
-        <v>0.1988153791738435</v>
+        <v>0.1804493993007443</v>
       </c>
       <c r="Q9">
-        <v>435.7252267037779</v>
+        <v>445.9404334232601</v>
       </c>
       <c r="R9">
-        <v>3921.527040334001</v>
+        <v>4013.463900809341</v>
       </c>
       <c r="S9">
-        <v>0.1972328369136233</v>
+        <v>0.1785434980110214</v>
       </c>
       <c r="T9">
-        <v>0.1972328369136232</v>
+        <v>0.1785434980110215</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4874236666666667</v>
+        <v>0.4264636666666666</v>
       </c>
       <c r="H10">
-        <v>1.462271</v>
+        <v>1.279391</v>
       </c>
       <c r="I10">
-        <v>0.003841086001067924</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="J10">
-        <v>0.003841086001067923</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.02092</v>
+        <v>5.616015666666666</v>
       </c>
       <c r="N10">
-        <v>12.06276</v>
+        <v>16.848047</v>
       </c>
       <c r="O10">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623356</v>
       </c>
       <c r="P10">
-        <v>0.2309641267836197</v>
+        <v>0.2860808099623357</v>
       </c>
       <c r="Q10">
-        <v>1.959891569773334</v>
+        <v>2.395026633264111</v>
       </c>
       <c r="R10">
-        <v>17.63902412796</v>
+        <v>21.555239699377</v>
       </c>
       <c r="S10">
-        <v>0.0008871530741374388</v>
+        <v>0.0009589093091423404</v>
       </c>
       <c r="T10">
-        <v>0.0008871530741374388</v>
+        <v>0.0009589093091423406</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4874236666666667</v>
+        <v>0.4264636666666666</v>
       </c>
       <c r="H11">
-        <v>1.462271</v>
+        <v>1.279391</v>
       </c>
       <c r="I11">
-        <v>0.003841086001067924</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="J11">
-        <v>0.003841086001067923</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.435526000000001</v>
+        <v>8.435525999999999</v>
       </c>
       <c r="N11">
         <v>25.306578</v>
       </c>
       <c r="O11">
-        <v>0.4845418204168501</v>
+        <v>0.4297071542841152</v>
       </c>
       <c r="P11">
-        <v>0.48454182041685</v>
+        <v>0.4297071542841153</v>
       </c>
       <c r="Q11">
-        <v>4.111675013182001</v>
+        <v>3.597445348221999</v>
       </c>
       <c r="R11">
-        <v>37.005075118638</v>
+        <v>32.377008133998</v>
       </c>
       <c r="S11">
-        <v>0.001861166803335131</v>
+        <v>0.001440327963634999</v>
       </c>
       <c r="T11">
-        <v>0.00186116680333513</v>
+        <v>0.001440327963634999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4874236666666667</v>
+        <v>0.4264636666666666</v>
       </c>
       <c r="H12">
-        <v>1.462271</v>
+        <v>1.279391</v>
       </c>
       <c r="I12">
-        <v>0.003841086001067924</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="J12">
-        <v>0.003841086001067923</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.491604333333333</v>
+        <v>2.036951</v>
       </c>
       <c r="N12">
-        <v>4.474813</v>
+        <v>6.110853000000001</v>
       </c>
       <c r="O12">
-        <v>0.08567867362568679</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="P12">
-        <v>0.0856786736256868</v>
+        <v>0.1037626364528048</v>
       </c>
       <c r="Q12">
-        <v>0.7270432533692223</v>
+        <v>0.8686855922803334</v>
       </c>
       <c r="R12">
-        <v>6.543389280323001</v>
+        <v>7.818170330523</v>
       </c>
       <c r="S12">
-        <v>0.000329099153853693</v>
+        <v>0.0003478001829233026</v>
       </c>
       <c r="T12">
-        <v>0.0003290991538536931</v>
+        <v>0.0003478001829233026</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4264636666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.279391</v>
+      </c>
+      <c r="I13">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="J13">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.542379</v>
+      </c>
+      <c r="N13">
+        <v>10.627137</v>
+      </c>
+      <c r="O13">
+        <v>0.1804493993007442</v>
+      </c>
+      <c r="P13">
+        <v>0.1804493993007443</v>
+      </c>
+      <c r="Q13">
+        <v>1.510695937063</v>
+      </c>
+      <c r="R13">
+        <v>13.596263433567</v>
+      </c>
+      <c r="S13">
+        <v>0.0006048452143343977</v>
+      </c>
+      <c r="T13">
+        <v>0.0006048452143343978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.4874236666666667</v>
-      </c>
-      <c r="H13">
-        <v>1.462271</v>
-      </c>
-      <c r="I13">
-        <v>0.003841086001067924</v>
-      </c>
-      <c r="J13">
-        <v>0.003841086001067923</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.461233333333334</v>
-      </c>
-      <c r="N13">
-        <v>10.3837</v>
-      </c>
-      <c r="O13">
-        <v>0.1988153791738435</v>
-      </c>
-      <c r="P13">
-        <v>0.1988153791738435</v>
-      </c>
-      <c r="Q13">
-        <v>1.687087042522223</v>
-      </c>
-      <c r="R13">
-        <v>15.1837833827</v>
-      </c>
-      <c r="S13">
-        <v>0.0007636669697416615</v>
-      </c>
-      <c r="T13">
-        <v>0.0007636669697416613</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.166583</v>
+      </c>
+      <c r="I14">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J14">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.616015666666666</v>
+      </c>
+      <c r="N14">
+        <v>16.848047</v>
+      </c>
+      <c r="O14">
+        <v>0.2860808099623356</v>
+      </c>
+      <c r="P14">
+        <v>0.2860808099623357</v>
+      </c>
+      <c r="Q14">
+        <v>0.3118442459334444</v>
+      </c>
+      <c r="R14">
+        <v>2.806598213401</v>
+      </c>
+      <c r="S14">
+        <v>0.000124854707782733</v>
+      </c>
+      <c r="T14">
+        <v>0.000124854707782733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.166583</v>
+      </c>
+      <c r="I15">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J15">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.435525999999999</v>
+      </c>
+      <c r="N15">
+        <v>25.306578</v>
+      </c>
+      <c r="O15">
+        <v>0.4297071542841152</v>
+      </c>
+      <c r="P15">
+        <v>0.4297071542841153</v>
+      </c>
+      <c r="Q15">
+        <v>0.468405075886</v>
+      </c>
+      <c r="R15">
+        <v>4.215645682974</v>
+      </c>
+      <c r="S15">
+        <v>0.0001875377841224528</v>
+      </c>
+      <c r="T15">
+        <v>0.0001875377841224528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.166583</v>
+      </c>
+      <c r="I16">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J16">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.036951</v>
+      </c>
+      <c r="N16">
+        <v>6.110853000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1037626364528048</v>
+      </c>
+      <c r="P16">
+        <v>0.1037626364528048</v>
+      </c>
+      <c r="Q16">
+        <v>0.1131071361443333</v>
+      </c>
+      <c r="R16">
+        <v>1.017964225299</v>
+      </c>
+      <c r="S16">
+        <v>4.528529423132766E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.528529423132766E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.166583</v>
+      </c>
+      <c r="I17">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J17">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.542379</v>
+      </c>
+      <c r="N17">
+        <v>10.627137</v>
+      </c>
+      <c r="O17">
+        <v>0.1804493993007442</v>
+      </c>
+      <c r="P17">
+        <v>0.1804493993007443</v>
+      </c>
+      <c r="Q17">
+        <v>0.196700040319</v>
+      </c>
+      <c r="R17">
+        <v>1.770300362871</v>
+      </c>
+      <c r="S17">
+        <v>7.875382141930573E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.875382141930575E-05</v>
       </c>
     </row>
   </sheetData>
